--- a/ProjectDiary_base.xlsx
+++ b/ProjectDiary_base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Christian</t>
   </si>
@@ -69,6 +69,33 @@
   </si>
   <si>
     <t>Coding and other things</t>
+  </si>
+  <si>
+    <t>12.6.</t>
+  </si>
+  <si>
+    <t>Discusson about prototype</t>
+  </si>
+  <si>
+    <t>29.5.</t>
+  </si>
+  <si>
+    <t>SVG</t>
+  </si>
+  <si>
+    <t>20.5.</t>
+  </si>
+  <si>
+    <t>Data, Literature, Sources</t>
+  </si>
+  <si>
+    <t>10.6.</t>
+  </si>
+  <si>
+    <t>Search Bar functionality</t>
+  </si>
+  <si>
+    <t>Animation, Prototype</t>
   </si>
 </sst>
 </file>
@@ -207,43 +234,43 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -563,158 +590,212 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
-    <col min="5" max="5" width="8.88671875" style="6"/>
-    <col min="6" max="6" width="20.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5"/>
-    <col min="8" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="25.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="5"/>
-    <col min="11" max="11" width="8.88671875" style="6"/>
-    <col min="12" max="12" width="24.77734375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="4"/>
-    <col min="14" max="14" width="14.21875" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="20.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="25.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="8.88671875" style="3"/>
+    <col min="12" max="12" width="24.77734375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.21875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="10">
         <f>SUM(B3:B99)+SUM(K3:K99)</f>
-        <v>4</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="10">
         <f>SUM(E3:E99)+SUM(K3:K99)</f>
-        <v>4</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="10">
         <f>SUM(H3:H99)+SUM(K3:K99)</f>
-        <v>9</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G3" s="5" t="s">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>2</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G4" s="5" t="s">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>2</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ProjectDiary_base.xlsx
+++ b/ProjectDiary_base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MH\Desktop\uni\02_Vienna\Web Mapping\project\github\CO2SpatialFootprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MH\Desktop\uni\02_Vienna\Web Mapping\project\offline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Christian</t>
   </si>
@@ -96,13 +96,16 @@
     <t>Prettiing up: responsive design,hints and coloring</t>
   </si>
   <si>
-    <t>Circle drawing and others</t>
-  </si>
-  <si>
     <t xml:space="preserve">26.6. </t>
   </si>
   <si>
     <t>online meeting and disc.</t>
+  </si>
+  <si>
+    <t>Circle drawing and finalization</t>
+  </si>
+  <si>
+    <t>Testing and improving</t>
   </si>
 </sst>
 </file>
@@ -282,14 +285,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,7 +610,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -647,14 +650,14 @@
       </c>
       <c r="H1" s="2">
         <f>SUM(H3:H99)+SUM(K3:K99)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -879,23 +882,23 @@
       <c r="D6" s="8"/>
       <c r="E6" s="4"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="16">
-        <v>42912</v>
+      <c r="G6" s="13">
+        <v>42900</v>
       </c>
       <c r="H6" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -919,9 +922,15 @@
       <c r="D7" s="8"/>
       <c r="E7" s="4"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="9"/>
+      <c r="G7" s="13">
+        <v>42912</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="4"/>
       <c r="L7" s="9"/>
